--- a/HostelManagement/report/20210525135407.xlsx
+++ b/HostelManagement/report/20210525135407.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajith\PycharmProjects\Project\HostelManagement\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58F80F-DADF-48AF-A29F-B150E48568AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="23" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -116,13 +127,16 @@
   </si>
   <si>
     <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>Count of Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,17 +178,1299 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[20210525135407.xlsx]Sheet3!PivotTable14</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Count of Date by Attendance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Absent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Present</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CDC-4BE0-AECF-B8C13B89E789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1188060144"/>
+        <c:axId val="1189958752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1188060144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189958752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1189958752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188060144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63B947E-F95D-4359-83DC-A71191E05E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ajith Anand" refreshedDate="44345.804999768516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{C26A8798-8862-4075-AC13-8A6031B00E12}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B31" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Attendance" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Absent"/>
+        <s v="Present"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <s v="2021-04-01"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-02"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-03"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-04"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-05"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-06"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-07"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-08"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-09"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-16"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2021-04-22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2021-04-23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="2021-04-24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-26"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-27"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="2021-04-30"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6C0C99B-7E85-4D03-BF1D-545C572E1953}" name="PivotTable14" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Date" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -220,7 +1516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +1548,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +1600,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +1793,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6DA517-5C3D-4ECE-BEB3-25D2FFA02333}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9F30-0CFB-4060-AED8-440CAB0D502A}">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -484,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -500,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -508,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -516,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -524,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -532,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -540,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -548,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -556,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -564,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -572,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -580,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -588,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -596,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -604,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -612,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -620,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -628,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -636,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -644,7 +2034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -652,7 +2042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -660,7 +2050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -668,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -676,7 +2066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -684,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -692,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -700,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -708,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
